--- a/biology/Médecine/1851_en_santé_et_médecine/1851_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1851_en_santé_et_médecine/1851_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1851_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1851_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1851 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1851_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1851_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première conférence sanitaire internationale à Paris, réunissant l'Autriche, le royaume des Deux-Siciles, l'Espagne, la France, la Grande-Bretagne, la Grèce, les États de la papauté, le Portugal, la Russie, la Sardaigne, la Toscane et la Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première conférence sanitaire internationale à Paris, réunissant l'Autriche, le royaume des Deux-Siciles, l'Espagne, la France, la Grande-Bretagne, la Grèce, les États de la papauté, le Portugal, la Russie, la Sardaigne, la Toscane et la Turquie.
 Le plâtre est utilisé pour la première fois sur des membres fracturés.</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1851_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1851_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>21 juin : Émile Bourquelot (mort en 1921), pharmacien et mycologue français.
 21 juillet : Paul Dorveaux (mort en 1938), médecin et historien français.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1851_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1851_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">2 avril : François-Auguste Vinson (né en 1798), médecin, homme politique et poète français.
-3 décembre : Jean-Baptiste Baudin (né en 1811), médecin et homme politique français, député à l'Assemblée de 1849, célèbre pour avoir été tué sur une barricade en criant[2] :
+3 décembre : Jean-Baptiste Baudin (né en 1811), médecin et homme politique français, député à l'Assemblée de 1849, célèbre pour avoir été tué sur une barricade en criant :
 « Vous allez voir comment on meurt pour vingt-cinq francs ! »
 </t>
         </is>
